--- a/src/main/resources/xlsx/pcs/pr-6.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-6.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>序号</t>
   </si>
@@ -100,6 +100,10 @@
   <si>
     <t>“stage”
 推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表构成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +677,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,7 +726,9 @@
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">

--- a/src/main/resources/xlsx/pcs/pr-6.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-6.xlsx
@@ -77,8 +77,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>全校共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“stage”
+推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人初步人选统计表
+      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人title人选统计表
 </t>
     </r>
     <r>
@@ -91,19 +104,6 @@
       </rPr>
       <t>（“stage”阶段，党委组织部汇总）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“stage”
-推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代表构成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +677,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -689,7 +689,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -703,7 +703,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>

--- a/src/main/resources/xlsx/pcs/pr-6.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-6.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7DE981-EA08-4763-937C-46E8853384CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选统计表" sheetId="1" r:id="rId1"/>
@@ -91,7 +92,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人title人选统计表
+      <t xml:space="preserve">title
 </t>
     </r>
     <r>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -673,11 +674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
